--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -43,83 +43,60 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CreateCustomerNPT</t>
-  </si>
-  <si>
-    <t>Create Activity log entry for pump time make it complete and create another activity log for pump time and mark as complete in same stage, validate the error message.</t>
+    <t>ActivityLog24Hours</t>
+  </si>
+  <si>
+    <t>Create 24 hours Activity</t>
   </si>
   <si>
     <t>1.Open the application 
 2.Enter valid Email and password and click on login 
 3.User Click on the Jobs module
-4.Perform Click action on the table button present under jobs
-5.User Enter the ""job number"" in the job search box 
-6.Click action on the Set as Current Job button. 
-7.Click action on the Set as Current Well link
-8.Click action on the Set as Current Stage link
-9.Click action on the Activty log View Detail link
-10.Click action on Set Date
-11.Click action on the Calender icon 
-12.Select the date from calender field
-13.Click action on Save 
-14.Click action on Create New Activity Log Entry button
-15.User Enter ""End time"" into the End time input field
-16.Click on Time on new day check box.
-17.User Select the Well value
-18.User Select the Stage value
-19.User Select the OPS activity as Schedule time in activity log
-20.Select the Pump Time present in schedule time
-21.User Click on the Save Activity Log Entry.
-22.Click on three dot action option
-23.Click on complete option
-24.Click on Add day button
-25.Click on Create new activity log button
-26.User Enter the ""End time2"" into the End time2 input field 
-27.User can Select the Well value 
-28.User can Select the Stage value 
-29.User can Select the OPS activity as Schedule time in activity log 
-30.User can Select the customer NPT option 
-31.User Click on the Save Activity Log Entry.</t>
+4.Click on the table button present under the jobs
+5.Click  on the Set as Current Job button of the job. 
+6.Click on the Set as Current Well link for the well
+7.Click  on the Set as Current Stage link for stages
+8.Click  on the Activty log View Detail link for log details
+9.Click action on the  Set Date 
+10.Enter the date from calender field
+11.Click action on the Save button
+12.Click action on the Create New Activity Log Entry button
+13.User Enter the "End time" into the End time input field
+14.Click on Time on new day check box.
+15.User Select the Well value from well dropdown
+16.User Select the Stage value from stage input field
+17.User Select  OPS activity as Schedule time in activity log
+18.Select the Pump Time from schedule time
+19.Click on the Save Activity Log Entry for save details.</t>
   </si>
   <si>
     <t xml:space="preserve">1.User should be able to navigate to the login page.
 2.User should be able to enter a valid email address and valid password and click on login. 
 3.User should be able to click on jobs 
 4.The jobs listing page should appear.
-5.The user should be able to search for a job with job id in search box.
-6. User should be able to click on set as current job 
-7.User should be able click on set as current well 
-8.User should be able to click on set as current satge.
-9.The user should be able to find the activity log and click on view Detail link.
-10.User should click on Set Date link 
-11. User should click on calender
-12.User should be able to select date from calender
-13.User should be able to save the sate.
-14. User should be able to click on Create new Activity Log Entry
-15.User should be able to enter the end time ""04:00"" into End
-16.Time on new day check box should be clicked
-17.User should be able to select well
-18.User should be able to select Stage
-19.User should be able to select OPS activity as Schedule time
-20.User should be able to select Pump Time
-21.User should click on Save activity log entry. 
-22.Options should be display
-23.one day activity should be completed
-24.User able to add next day
-25.User should be able to click on Create new Activity Log Entry 
-26.User should be able to enter the end time2 "04:00" into End time 2 field 
-27.User must select well 
-28.User must select Stage 
-29.User must select OPS activity as Schedule time 
-30.User should be able to select customer NPT activity.
+5. User should be able to click on set as current job 
+6.User should be able click on set as current well 
+7.User should be able to click on set as current satge.
+8.The user should be able to find the activity log and click on view Detail link.
+9.User should click on Set Date link 
+10.User should be able to select date from calender
+11.User should be able to save the sate.
+12. User should be able to click on Create new Activity Log Entry
+13.User should be able to enter the end time ""04:00"" into End
+14.Time on new day check box should be clicked
+15.User should be able to select well
+16.User should be able to select Stage
+17.User should be able to select OPS activity as Schedule time
+18.User should be able to select Pump Time
+19.User should click on Save activity log entry. 
 </t>
   </si>
   <si>
-    <t>End time-5:00
-End time 2-9:00</t>
-  </si>
-  <si>
-    <t>Ready</t>
+    <t xml:space="preserve">End Time-00:00
+</t>
+  </si>
+  <si>
+    <t>Ready for testing</t>
   </si>
   <si>
     <t>Processed</t>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -43,60 +43,57 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ActivityLog24Hours</t>
-  </si>
-  <si>
-    <t>Create 24 hours Activity</t>
-  </si>
-  <si>
-    <t>1.Open the application 
-2.Enter valid Email and password and click on login 
-3.User Click on the Jobs module
-4.Click on the table button present under the jobs
-5.Click  on the Set as Current Job button of the job. 
-6.Click on the Set as Current Well link for the well
-7.Click  on the Set as Current Stage link for stages
-8.Click  on the Activty log View Detail link for log details
-9.Click action on the  Set Date 
-10.Enter the date from calender field
-11.Click action on the Save button
-12.Click action on the Create New Activity Log Entry button
-13.User Enter the "End time" into the End time input field
-14.Click on Time on new day check box.
-15.User Select the Well value from well dropdown
-16.User Select the Stage value from stage input field
-17.User Select  OPS activity as Schedule time in activity log
-18.Select the Pump Time from schedule time
-19.Click on the Save Activity Log Entry for save details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User should be able to navigate to the login page.
-2.User should be able to enter a valid email address and valid password and click on login. 
-3.User should be able to click on jobs 
-4.The jobs listing page should appear.
-5. User should be able to click on set as current job 
-6.User should be able click on set as current well 
-7.User should be able to click on set as current satge.
-8.The user should be able to find the activity log and click on view Detail link.
-9.User should click on Set Date link 
-10.User should be able to select date from calender
-11.User should be able to save the sate.
-12. User should be able to click on Create new Activity Log Entry
-13.User should be able to enter the end time ""04:00"" into End
-14.Time on new day check box should be clicked
-15.User should be able to select well
-16.User should be able to select Stage
-17.User should be able to select OPS activity as Schedule time
-18.User should be able to select Pump Time
-19.User should click on Save activity log entry. 
+    <t>Create Stratagen NPT</t>
+  </si>
+  <si>
+    <t>Create the activity log with staratagen NPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on the job module element
+2.Click action on the table button element
+3.User Enter the "job number" in the job search box element
+4.User perform Click action on the Set as Current Job button element
+5.User perform Click action on the Set as Current Well link element
+6.User perform Click action on the Set as Current Stage link element
+7.User perform Click action on the Activty log View Detail link element
+8.User perform Click action on Set Date element
+9.User enter the "date" from calender date input field element
+10.User perform the Click action on Save button
+11.User perform Click action on Create New Activity Log Entry button
+12.User perform Enter "End time" into the End time input field
+13.User perform the Select action the "Well value" in well field
+14.User perform the Select action "Stage value" in stage field
+15.User perform Select the OPS activity as Schedule time in activity log 
+16.User Select the NPT present in Stratagen NPT field
+17.User perform click on the Save Activity Log Entry element .
 </t>
   </si>
   <si>
-    <t xml:space="preserve">End Time-00:00
+    <t xml:space="preserve">
+1.User should be click on job module
+2.The jobs listing page should appear.
+3.The user should be able to search for a job with job id in search box.
+4. User should be able to click on set as current job 
+5.User should be able click on set as current well 
+6.User should be able to click on set as current satge.
+7.The user should be able to find the activity log and click on view Detail link.
+8.User should click on Set Date link 
+9.User should be able to select date from calender
+10.User should be able to save the sate.
+11. User should be able to click on Create new Activity Log Entry
+12.User should be able to enter the end time "04:00" into End
+13.User should be able to select well
+14.User should be able to select Stage
+15.User should be able to select OPS activity as Schedule time
+16.User should be able to select Pump Time
+17.User should click on Save activity log entry. 
 </t>
   </si>
   <si>
-    <t>Ready for testing</t>
+    <t>job number-001                                                                       End Time- 01;00                                                                                    Well value-well 0001                                                                               Stage value -2</t>
+  </si>
+  <si>
+    <t>Reaty for testing</t>
   </si>
   <si>
     <t>Processed</t>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -43,57 +43,67 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Create Stratagen NPT</t>
-  </si>
-  <si>
-    <t>Create the activity log with staratagen NPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click on the job module element
-2.Click action on the table button element
-3.User Enter the "job number" in the job search box element
-4.User perform Click action on the Set as Current Job button element
-5.User perform Click action on the Set as Current Well link element
-6.User perform Click action on the Set as Current Stage link element
-7.User perform Click action on the Activty log View Detail link element
-8.User perform Click action on Set Date element
-9.User enter the "date" from calender date input field element
-10.User perform the Click action on Save button
-11.User perform Click action on Create New Activity Log Entry button
-12.User perform Enter "End time" into the End time input field
-13.User perform the Select action the "Well value" in well field
-14.User perform the Select action "Stage value" in stage field
-15.User perform Select the OPS activity as Schedule time in activity log 
-16.User Select the NPT present in Stratagen NPT field
-17.User perform click on the Save Activity Log Entry element .
+    <t>Day1ActivityLog</t>
+  </si>
+  <si>
+    <t>Create Activity log for Day1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open the application 
+2.Enter valid Email and password and click on login 
+3.Click on Jobs option
+4.Click on the table button
+5.Enter the job number in search box 
+6.Click on Set as Current Job link
+7.Click on Set as Current Well link
+8.Click on Set as Current Stage link
+9.Click on Activty log View Detail
+10.Click on Set Date
+11.Enter the "date" into calender date input field.
+12.Click on Save button
+13.Click on Create New Activity Log Entry button
+15.Enter "End time" into End Time input field
+16.Select the "Well name " from Well dropdown.
+17.Select the "Stage name" from stage dropdown
+18.Select the OPS activity as Schedule time 
+19.Select the Pump Time 
+20.Enter "Comment" into comment input field.
+20.Click Save Activity Log Entry
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1.User should be click on job module
-2.The jobs listing page should appear.
-3.The user should be able to search for a job with job id in search box.
-4. User should be able to click on set as current job 
-5.User should be able click on set as current well 
-6.User should be able to click on set as current satge.
-7.The user should be able to find the activity log and click on view Detail link.
-8.User should click on Set Date link 
-9.User should be able to select date from calender
-10.User should be able to save the sate.
-11. User should be able to click on Create new Activity Log Entry
-12.User should be able to enter the end time "04:00" into End
-13.User should be able to select well
-14.User should be able to select Stage
-15.User should be able to select OPS activity as Schedule time
-16.User should be able to select Pump Time
-17.User should click on Save activity log entry. 
+    <t xml:space="preserve">1.User should be able to navigate to the login page.
+2.User should be able to enter a valid email address and valid password and click on login. 
+3.User should be able to click on jobs 
+4.The jobs listing should appear.
+5.The user should be able to search for a job with job id in search box.
+6. User should be able to click on set as current job 
+7.User should be able click on set as current well 
+8.User should be able to click on set as current satge.
+9.The user should be able to find the activity log and click on view Detail link.
+10.User should click on Set Date link 
+11. User should click on calender
+12.User should be able to save the sate.
+13. User should be able to click on Create new Activity Log Entry
+14.User should be able to enter the end time "04:00" into End
+15.User should be able to select well
+16.User should be able to select Stage
+17.User should be able to select OPS activity as Schedule time
+18.User should be able to select Pump Time
+19.pump time should be selected
+20.Comment should be entered and User should click on Save activity log entry. 
 </t>
   </si>
   <si>
-    <t>job number-001                                                                       End Time- 01;00                                                                                    Well value-well 0001                                                                               Stage value -2</t>
-  </si>
-  <si>
-    <t>Reaty for testing</t>
+    <t xml:space="preserve">date-2024/18/07
+End Time-00:30
+Well name- Well 0001
+Stage name- 1
+Comment-This is the to day report
+</t>
+  </si>
+  <si>
+    <t>Ready for testing</t>
   </si>
   <si>
     <t>Processed</t>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Story Title</t>
   </si>
@@ -37,73 +37,90 @@
     <t>Sample data</t>
   </si>
   <si>
-    <t>Stratus</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Day1ActivityLog</t>
-  </si>
-  <si>
-    <t>Create Activity log for Day1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Open the application 
-2.Enter valid Email and password and click on login 
-3.Click on Jobs option
-4.Click on the table button
-5.Enter the job number in search box 
-6.Click on Set as Current Job link
-7.Click on Set as Current Well link
-8.Click on Set as Current Stage link
-9.Click on Activty log View Detail
-10.Click on Set Date
-11.Enter the "date" into calender date input field.
-12.Click on Save button
-13.Click on Create New Activity Log Entry button
-15.Enter "End time" into End Time input field
-16.Select the "Well name " from Well dropdown.
-17.Select the "Stage name" from stage dropdown
-18.Select the OPS activity as Schedule time 
-19.Select the Pump Time 
-20.Enter "Comment" into comment input field.
-20.Click Save Activity Log Entry
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User should be able to navigate to the login page.
-2.User should be able to enter a valid email address and valid password and click on login. 
-3.User should be able to click on jobs 
-4.The jobs listing should appear.
-5.The user should be able to search for a job with job id in search box.
-6. User should be able to click on set as current job 
-7.User should be able click on set as current well 
-8.User should be able to click on set as current satge.
-9.The user should be able to find the activity log and click on view Detail link.
-10.User should click on Set Date link 
-11. User should click on calender
-12.User should be able to save the sate.
-13. User should be able to click on Create new Activity Log Entry
-14.User should be able to enter the end time "04:00" into End
-15.User should be able to select well
-16.User should be able to select Stage
-17.User should be able to select OPS activity as Schedule time
-18.User should be able to select Pump Time
-19.pump time should be selected
-20.Comment should be entered and User should click on Save activity log entry. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date-2024/18/07
-End Time-00:30
-Well name- Well 0001
-Stage name- 1
-Comment-This is the to day report
-</t>
-  </si>
-  <si>
-    <t>Ready for testing</t>
+    <t>Chemical Stand by</t>
+  </si>
+  <si>
+    <t>Verify the user Can add the Chemicals in Stand by and can create new Stand by by clicking "Add Record" button present in Totes on Standby ,Buckets on Standby table in Chemical stand by page.</t>
+  </si>
+  <si>
+    <t>1.Open the application .
+2.Enter valid email address into the "Email Address" input field. 
+3.Enter valid password into the "Password" input field.
+4.Click on Login Button.
+5.Scroll to Jobs Side bar.
+6.Drag the Board Option and drop in box.
+7.Go to a existing job and click on Show Job(-&gt;) ibutton.
+8.Navigate to the Chemical .
+9.Click on View Details link.
+10.Right click on Delivery tracking.
+11.Go to the existing chemical present under Delievery record list.
+12.Double click on threedot (...)  toggle dropdown present in right side of existing chemical under Delievery record list.
+13.Click on Stand by Option.
+14.Click and hold on Yes,move it Option ftom the pop up.
+15.Verify that the Selected existing chemical should not be display under Delivery Record List.                                                                                       16.Click on Stand by  option.
+17.Verify that the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
+18.Click on Add Records button in Totes on Standby Tables.
+19.Click on Chemical dropdown.
+20.Select a option from Chemical dropdown.
+21.Right Click on Total size dropdown.
+22.Select a option from Total size dropdown.
+23.Enter valid data into "# of Full totes" into  # of Full totes field.
+24.enter valid data from "Total Partials (")" into Total partial input field.
+25.Click on Save button.
+26.Right Click on Add Records button in Totes on Standby Tables.
+27.Click on Chemical dropdown.
+28.Select a option from Chemical dropdown.
+29.Click on Bucket Size dropdown.
+30.Select a option from Bucket Size dropdown.
+31.Enter valid data "# of Full Buckets" in to # of Full Buckets field.
+32.Send valid data into "Partial Buckets" into partial bucket () field.
+33.Click on Save button.</t>
+  </si>
+  <si>
+    <t>1.User should be able to navigate to the login page.
+2.User should be able to enter a valid email address.
+3.User should be able to enter a valid password.
+4.Upon clicking the ""Login"" button, the user should be redirected to the dashboard page.
+5.Job slider should be open.
+6.User should redirected to Job Board page.
+7.By clicking on Show job i button user should be able to navigate into the Specific job .
+8.User able to navigate to Chemical.
+9.Chemicals - Setup page must display.
+10.User should navigate to Chemicals - Delivery Tracking page.
+11.User able to navigate to a existing chemical.
+12.Multiple option must be display(Edit,Return,delete,Stand by).
+13.A pop up must appear with message "You are about to move a record".
+14.User navigate to Chemicals - Delivery Tracking page.
+15.Existing chemical must be added in Stand by.
+16.Chemicals - Standby page must open.
+17.User should be able to see the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
+18.All the specified field of user workflow must be enable in Totes on Standby table.
+19.Chemical dropdown must open.
+20.User able to select a option from Chemical dropdown.
+21.Totes Size dropdown must open.
+22.User able to select a option from totes Size dropdown.
+23.User able to enter data into # of Full totes field.
+24.User able to enter data into Total Partials (") field.
+25.All the Specified field should be filled and saved in Totes on Standby table along with bydefault the Total gallon value should be display.
+26.All the specified field of user workflow must be enable in Buckets on Standby table.
+27.Chemical dropdown must open.
+28.User able to select a option from Chemical dropdown.
+29.Bucket Size dropdown must open.
+30.User able to select a option from Bucket Size dropdown.
+31.User able to enter data into # of Full Buckets field.
+32.User able to enter data into Partial Buckets(") field.
+33.All the Specified field should be filled and saved in Buckets on Standby table along with bydefault the Total Lbs value should be display.</t>
+  </si>
+  <si>
+    <t>1.Email -bikash.moharana@walkingtree.tech 
+2.Password-Walkingtree1@.
+3.# of Full Totes field-100
+4.Total Partials (")-80
+5.# of Full Buckets-200
+6.Partial Buckets-150</t>
   </si>
   <si>
     <t>Processed</t>
@@ -464,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,31 +512,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Story Title</t>
   </si>
@@ -37,90 +37,77 @@
     <t>Sample data</t>
   </si>
   <si>
+    <t>Stratus</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Chemical Stand by</t>
-  </si>
-  <si>
-    <t>Verify the user Can add the Chemicals in Stand by and can create new Stand by by clicking "Add Record" button present in Totes on Standby ,Buckets on Standby table in Chemical stand by page.</t>
-  </si>
-  <si>
-    <t>1.Open the application .
-2.Enter valid email address into the "Email Address" input field. 
-3.Enter valid password into the "Password" input field.
-4.Click on Login Button.
-5.Scroll to Jobs Side bar.
-6.Drag the Board Option and drop in box.
-7.Go to a existing job and click on Show Job(-&gt;) ibutton.
-8.Navigate to the Chemical .
-9.Click on View Details link.
-10.Right click on Delivery tracking.
-11.Go to the existing chemical present under Delievery record list.
-12.Double click on threedot (...)  toggle dropdown present in right side of existing chemical under Delievery record list.
-13.Click on Stand by Option.
-14.Click and hold on Yes,move it Option ftom the pop up.
-15.Verify that the Selected existing chemical should not be display under Delivery Record List.                                                                                       16.Click on Stand by  option.
-17.Verify that the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
-18.Click on Add Records button in Totes on Standby Tables.
-19.Click on Chemical dropdown.
-20.Select a option from Chemical dropdown.
-21.Right Click on Total size dropdown.
-22.Select a option from Total size dropdown.
-23.Enter valid data into "# of Full totes" into  # of Full totes field.
-24.enter valid data from "Total Partials (")" into Total partial input field.
-25.Click on Save button.
-26.Right Click on Add Records button in Totes on Standby Tables.
-27.Click on Chemical dropdown.
-28.Select a option from Chemical dropdown.
-29.Click on Bucket Size dropdown.
-30.Select a option from Bucket Size dropdown.
-31.Enter valid data "# of Full Buckets" in to # of Full Buckets field.
-32.Send valid data into "Partial Buckets" into partial bucket () field.
-33.Click on Save button.</t>
-  </si>
-  <si>
-    <t>1.User should be able to navigate to the login page.
-2.User should be able to enter a valid email address.
-3.User should be able to enter a valid password.
-4.Upon clicking the ""Login"" button, the user should be redirected to the dashboard page.
-5.Job slider should be open.
-6.User should redirected to Job Board page.
-7.By clicking on Show job i button user should be able to navigate into the Specific job .
-8.User able to navigate to Chemical.
-9.Chemicals - Setup page must display.
-10.User should navigate to Chemicals - Delivery Tracking page.
-11.User able to navigate to a existing chemical.
-12.Multiple option must be display(Edit,Return,delete,Stand by).
-13.A pop up must appear with message "You are about to move a record".
-14.User navigate to Chemicals - Delivery Tracking page.
-15.Existing chemical must be added in Stand by.
-16.Chemicals - Standby page must open.
-17.User should be able to see the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
-18.All the specified field of user workflow must be enable in Totes on Standby table.
-19.Chemical dropdown must open.
-20.User able to select a option from Chemical dropdown.
-21.Totes Size dropdown must open.
-22.User able to select a option from totes Size dropdown.
-23.User able to enter data into # of Full totes field.
-24.User able to enter data into Total Partials (") field.
-25.All the Specified field should be filled and saved in Totes on Standby table along with bydefault the Total gallon value should be display.
-26.All the specified field of user workflow must be enable in Buckets on Standby table.
-27.Chemical dropdown must open.
-28.User able to select a option from Chemical dropdown.
-29.Bucket Size dropdown must open.
-30.User able to select a option from Bucket Size dropdown.
-31.User able to enter data into # of Full Buckets field.
-32.User able to enter data into Partial Buckets(") field.
-33.All the Specified field should be filled and saved in Buckets on Standby table along with bydefault the Total Lbs value should be display.</t>
-  </si>
-  <si>
-    <t>1.Email -bikash.moharana@walkingtree.tech 
-2.Password-Walkingtree1@.
-3.# of Full Totes field-100
-4.Total Partials (")-80
-5.# of Full Buckets-200
-6.Partial Buckets-150</t>
+    <t>CreateJob</t>
+  </si>
+  <si>
+    <t>Create job with mandatory data only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on the jobs sidebar.
+2.Click on Table
+3.Click on Create New Job button.
+4.Enter value "Job number" into Job Number input field.
+5.Click on District dropdown.
+6.Select a "district option" from District dropdown list.
+7.Click on Fleet dropdown.
+8.Select a "fleet option" from Fleet dropdown.
+9.Click on service compant dropdown.
+10.Select a "Service company" option from service company dropdown.
+11.Click on Pad dropdown.
+12.Select a "pad option" from Pad dropdown. 
+13.Click on Location dropdown.
+14.Select a "Location option" from Location dropdown.
+15.click and select a value "Per day" into Target stages per day dropdown.
+16.Enter "Target Pump Time Per Day value" into Target Pump Time Per Day input field
+17.Click on Save Job button.
+</t>
+  </si>
+  <si>
+    <t>1.The Jobs slider must open.
+2.Job Listing page must be open.
+3.Add/Edit Frac Job page must be open.
+4.Job Number input field must be filled.
+5.District dropdown must be clicked.
+6.Option must be selected for district dropdown.
+7.Fleet dropdown must be clicked.
+8.Option must be selected for fleet dropdown.
+9.Operator dropdown must be clicked.
+10.Option must be selected for Operator dropdown.
+11.Pad dropdown must be clicked.
+12.Option must be selected for Pad dropdown.
+13.Location dropdown must be clicked.
+14.Option must be selected for Location dropdown.
+15.Target Pump Time Per Day input field must be filled.
+16.Target Pump Time Per Day value shoiuld be entered.
+17.The job should be saved with the provided details.</t>
+  </si>
+  <si>
+    <t>1.All dropdowns must have at least one selectable option. 
+2.The "Target Pump Time Per Day" input field should only accept numeric values. 
+3.The "Save Job" button should be functional and responsive.</t>
+  </si>
+  <si>
+    <t>Ensure that the dropdown options are up-to-date and accurately reflect the available choices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Number-100
+district option-agra
+fleet option-xyz
+Service company-abc
+pad-mmm
+location-india
+Per Day-10
+Target Pump Time Per Day value-5
+</t>
+  </si>
+  <si>
+    <t>Ready for testing</t>
   </si>
   <si>
     <t>Processed</t>
@@ -481,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,25 +499,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Story Title</t>
   </si>
@@ -37,90 +37,38 @@
     <t>Sample data</t>
   </si>
   <si>
+    <t>Stratus</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Chemical Stand by</t>
-  </si>
-  <si>
-    <t>Verify the user Can add the Chemicals in Stand by and can create new Stand by by clicking "Add Record" button present in Totes on Standby ,Buckets on Standby table in Chemical stand by page.</t>
-  </si>
-  <si>
-    <t>1.Open the application .
-2.Enter valid email address into the "Email Address" input field. 
-3.Enter valid password into the "Password" input field.
-4.Click on Login Button.
-5.Scroll to Jobs Side bar.
-6.Drag the Board Option and drop in box.
-7.Go to a existing job and click on Show Job(-&gt;) ibutton.
-8.Navigate to the Chemical .
-9.Click on View Details link.
-10.Right click on Delivery tracking.
-11.Go to the existing chemical present under Delievery record list.
-12.Double click on threedot (...)  toggle dropdown present in right side of existing chemical under Delievery record list.
-13.Click on Stand by Option.
-14.Click and hold on Yes,move it Option ftom the pop up.
-15.Verify that the Selected existing chemical should not be display under Delivery Record List.                                                                                       16.Click on Stand by  option.
-17.Verify that the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
-18.Click on Add Records button in Totes on Standby Tables.
-19.Click on Chemical dropdown.
-20.Select a option from Chemical dropdown.
-21.Right Click on Total size dropdown.
-22.Select a option from Total size dropdown.
-23.Enter valid data into "# of Full totes" into  # of Full totes field.
-24.enter valid data from "Total Partials (")" into Total partial input field.
-25.Click on Save button.
-26.Right Click on Add Records button in Totes on Standby Tables.
-27.Click on Chemical dropdown.
-28.Select a option from Chemical dropdown.
-29.Click on Bucket Size dropdown.
-30.Select a option from Bucket Size dropdown.
-31.Enter valid data "# of Full Buckets" in to # of Full Buckets field.
-32.Send valid data into "Partial Buckets" into partial bucket () field.
-33.Click on Save button.</t>
-  </si>
-  <si>
-    <t>1.User should be able to navigate to the login page.
-2.User should be able to enter a valid email address.
-3.User should be able to enter a valid password.
-4.Upon clicking the ""Login"" button, the user should be redirected to the dashboard page.
-5.Job slider should be open.
-6.User should redirected to Job Board page.
-7.By clicking on Show job i button user should be able to navigate into the Specific job .
-8.User able to navigate to Chemical.
-9.Chemicals - Setup page must display.
-10.User should navigate to Chemicals - Delivery Tracking page.
-11.User able to navigate to a existing chemical.
-12.Multiple option must be display(Edit,Return,delete,Stand by).
-13.A pop up must appear with message "You are about to move a record".
-14.User navigate to Chemicals - Delivery Tracking page.
-15.Existing chemical must be added in Stand by.
-16.Chemicals - Standby page must open.
-17.User should be able to see the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
-18.All the specified field of user workflow must be enable in Totes on Standby table.
-19.Chemical dropdown must open.
-20.User able to select a option from Chemical dropdown.
-21.Totes Size dropdown must open.
-22.User able to select a option from totes Size dropdown.
-23.User able to enter data into # of Full totes field.
-24.User able to enter data into Total Partials (") field.
-25.All the Specified field should be filled and saved in Totes on Standby table along with bydefault the Total gallon value should be display.
-26.All the specified field of user workflow must be enable in Buckets on Standby table.
-27.Chemical dropdown must open.
-28.User able to select a option from Chemical dropdown.
-29.Bucket Size dropdown must open.
-30.User able to select a option from Bucket Size dropdown.
-31.User able to enter data into # of Full Buckets field.
-32.User able to enter data into Partial Buckets(") field.
-33.All the Specified field should be filled and saved in Buckets on Standby table along with bydefault the Total Lbs value should be display.</t>
-  </si>
-  <si>
-    <t>1.Email -bikash.moharana@walkingtree.tech 
-2.Password-Walkingtree1@.
-3.# of Full Totes field-100
-4.Total Partials (")-80
-5.# of Full Buckets-200
-6.Partial Buckets-150</t>
+    <t>CreateLocation</t>
+  </si>
+  <si>
+    <t>As a Back office user i can create the new location</t>
+  </si>
+  <si>
+    <t>1.Click on Reference Data module
+2.Click on Location option
+3.Click on create new location
+4.Enter the "Location name" into Location Name input field 
+5.Click on save location button.
+6.Verify the new created location should display in manage location page</t>
+  </si>
+  <si>
+    <t>1.The User must be able to view the side menu on HomePage and able to click on Reference Data.
+2.Manage Locations must be open.
+3.Add/Edit Location page should be display
+4.User should be a valid location name
+5.user should be able to save the location.
+6.Location should be display in manage location page.</t>
+  </si>
+  <si>
+    <t>Location name-Delhi</t>
+  </si>
+  <si>
+    <t>Ready for Testing</t>
   </si>
   <si>
     <t>Processed</t>
@@ -481,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,25 +460,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/updated_user_story/user_story_updated.xlsx
+++ b/updated_user_story/user_story_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Story Title</t>
   </si>
@@ -37,77 +37,90 @@
     <t>Sample data</t>
   </si>
   <si>
-    <t>Stratus</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>CreateJob</t>
-  </si>
-  <si>
-    <t>Create job with mandatory data only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click on the jobs sidebar.
-2.Click on Table
-3.Click on Create New Job button.
-4.Enter value "Job number" into Job Number input field.
-5.Click on District dropdown.
-6.Select a "district option" from District dropdown list.
-7.Click on Fleet dropdown.
-8.Select a "fleet option" from Fleet dropdown.
-9.Click on service compant dropdown.
-10.Select a "Service company" option from service company dropdown.
-11.Click on Pad dropdown.
-12.Select a "pad option" from Pad dropdown. 
-13.Click on Location dropdown.
-14.Select a "Location option" from Location dropdown.
-15.click and select a value "Per day" into Target stages per day dropdown.
-16.Enter "Target Pump Time Per Day value" into Target Pump Time Per Day input field
-17.Click on Save Job button.
-</t>
-  </si>
-  <si>
-    <t>1.The Jobs slider must open.
-2.Job Listing page must be open.
-3.Add/Edit Frac Job page must be open.
-4.Job Number input field must be filled.
-5.District dropdown must be clicked.
-6.Option must be selected for district dropdown.
-7.Fleet dropdown must be clicked.
-8.Option must be selected for fleet dropdown.
-9.Operator dropdown must be clicked.
-10.Option must be selected for Operator dropdown.
-11.Pad dropdown must be clicked.
-12.Option must be selected for Pad dropdown.
-13.Location dropdown must be clicked.
-14.Option must be selected for Location dropdown.
-15.Target Pump Time Per Day input field must be filled.
-16.Target Pump Time Per Day value shoiuld be entered.
-17.The job should be saved with the provided details.</t>
-  </si>
-  <si>
-    <t>1.All dropdowns must have at least one selectable option. 
-2.The "Target Pump Time Per Day" input field should only accept numeric values. 
-3.The "Save Job" button should be functional and responsive.</t>
-  </si>
-  <si>
-    <t>Ensure that the dropdown options are up-to-date and accurately reflect the available choices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Number-100
-district option-agra
-fleet option-xyz
-Service company-abc
-pad-mmm
-location-india
-Per Day-10
-Target Pump Time Per Day value-5
-</t>
-  </si>
-  <si>
-    <t>Ready for testing</t>
+    <t>Chemical Stand by</t>
+  </si>
+  <si>
+    <t>Verify the user Can add the Chemicals in Stand by and can create new Stand by by clicking "Add Record" button present in Totes on Standby ,Buckets on Standby table in Chemical stand by page.</t>
+  </si>
+  <si>
+    <t>1.Open the application .
+2.Enter valid email address into the "Email Address" input field. 
+3.Enter valid password into the "Password" input field.
+4.Click on Login Button.
+5.Scroll to Jobs Side bar.
+6.Drag the Board Option and drop in box.
+7.Go to a existing job and click on Show Job(-&gt;) ibutton.
+8.Navigate to the Chemical .
+9.Click on View Details link.
+10.Right click on Delivery tracking.
+11.Go to the existing chemical present under Delievery record list.
+12.Double click on threedot (...)  toggle dropdown present in right side of existing chemical under Delievery record list.
+13.Click on Stand by Option.
+14.Click and hold on Yes,move it Option ftom the pop up.
+15.Verify that the Selected existing chemical should not be display under Delivery Record List.                                                                                       16.Click on Stand by  option.
+17.Verify that the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
+18.Click on Add Records button in Totes on Standby Tables.
+19.Click on Chemical dropdown.
+20.Select a option from Chemical dropdown.
+21.Right Click on Total size dropdown.
+22.Select a option from Total size dropdown.
+23.Enter valid data into "# of Full totes" into  # of Full totes field.
+24.enter valid data from "Total Partials (")" into Total partial input field.
+25.Click on Save button.
+26.Right Click on Add Records button in Totes on Standby Tables.
+27.Click on Chemical dropdown.
+28.Select a option from Chemical dropdown.
+29.Click on Bucket Size dropdown.
+30.Select a option from Bucket Size dropdown.
+31.Enter valid data "# of Full Buckets" in to # of Full Buckets field.
+32.Send valid data into "Partial Buckets" into partial bucket () field.
+33.Click on Save button.</t>
+  </si>
+  <si>
+    <t>1.User should be able to navigate to the login page.
+2.User should be able to enter a valid email address.
+3.User should be able to enter a valid password.
+4.Upon clicking the ""Login"" button, the user should be redirected to the dashboard page.
+5.Job slider should be open.
+6.User should redirected to Job Board page.
+7.By clicking on Show job i button user should be able to navigate into the Specific job .
+8.User able to navigate to Chemical.
+9.Chemicals - Setup page must display.
+10.User should navigate to Chemicals - Delivery Tracking page.
+11.User able to navigate to a existing chemical.
+12.Multiple option must be display(Edit,Return,delete,Stand by).
+13.A pop up must appear with message "You are about to move a record".
+14.User navigate to Chemicals - Delivery Tracking page.
+15.Existing chemical must be added in Stand by.
+16.Chemicals - Standby page must open.
+17.User should be able to see the existing chemical should display under Deliveries on Stand-By in Chemicals - Standby page.
+18.All the specified field of user workflow must be enable in Totes on Standby table.
+19.Chemical dropdown must open.
+20.User able to select a option from Chemical dropdown.
+21.Totes Size dropdown must open.
+22.User able to select a option from totes Size dropdown.
+23.User able to enter data into # of Full totes field.
+24.User able to enter data into Total Partials (") field.
+25.All the Specified field should be filled and saved in Totes on Standby table along with bydefault the Total gallon value should be display.
+26.All the specified field of user workflow must be enable in Buckets on Standby table.
+27.Chemical dropdown must open.
+28.User able to select a option from Chemical dropdown.
+29.Bucket Size dropdown must open.
+30.User able to select a option from Bucket Size dropdown.
+31.User able to enter data into # of Full Buckets field.
+32.User able to enter data into Partial Buckets(") field.
+33.All the Specified field should be filled and saved in Buckets on Standby table along with bydefault the Total Lbs value should be display.</t>
+  </si>
+  <si>
+    <t>1.Email -bikash.moharana@walkingtree.tech 
+2.Password-Walkingtree1@.
+3.# of Full Totes field-100
+4.Total Partials (")-80
+5.# of Full Buckets-200
+6.Partial Buckets-150</t>
   </si>
   <si>
     <t>Processed</t>
@@ -468,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,37 +512,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
